--- a/Project/static/download_example/principal_component_analysis_dataset.xlsx
+++ b/Project/static/download_example/principal_component_analysis_dataset.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="9156"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_principal_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C2500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
